--- a/Приложения/Приложение 4А. Текстовая коллекция.xlsx
+++ b/Приложения/Приложение 4А. Текстовая коллекция.xlsx
@@ -5156,7 +5156,7 @@
     <col customWidth="1" min="3" max="3" width="91.38"/>
     <col customWidth="1" min="4" max="4" width="13.25"/>
     <col customWidth="1" min="5" max="5" width="17.5"/>
-    <col customWidth="1" min="6" max="6" width="16.88"/>
+    <col customWidth="1" hidden="1" min="6" max="6" width="16.88"/>
     <col customWidth="1" min="7" max="7" width="19.38"/>
   </cols>
   <sheetData>
